--- a/数据/rst.xlsx
+++ b/数据/rst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPaper\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C264F511-BA5D-4B30-B514-3B826344A529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5DBDE-9DA1-4DA0-ADF5-E7BFEABC2F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,15 +410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1044,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1060,11 +1048,12 @@
     <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" customWidth="1"/>
     <col min="10" max="10" width="41.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="15.109375" style="25" customWidth="1"/>
+    <col min="12" max="43" width="8.88671875" style="3"/>
+    <col min="44" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1117,7 @@
         <v>0.84799998998641901</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1160,40 +1149,72 @@
         <v>0.85199999809265103</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="23">
-        <v>600</v>
-      </c>
-      <c r="C5" s="23">
-        <v>250</v>
-      </c>
-      <c r="D5" s="23">
-        <v>131</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="23">
+    <row r="5" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22">
+        <v>600</v>
+      </c>
+      <c r="C5" s="22">
+        <v>250</v>
+      </c>
+      <c r="D5" s="22">
+        <v>131</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="22">
         <v>0.95</v>
       </c>
-      <c r="G5" s="23">
-        <v>100</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="22">
+        <v>100</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>0.88800001144409102</v>
       </c>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="25"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1224,9 +1245,9 @@
       <c r="J6" s="3">
         <v>0.84799998998641901</v>
       </c>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>0.82800000905990601</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1311,7 @@
         <v>0.83200001716613703</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1322,13 +1343,13 @@
         <v>0.84399998188018799</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J10" s="34">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="J10" s="30">
         <f>AVERAGE(J3:J9)</f>
         <v>0.84857142823083009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>0.81999999284744196</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1413,7 @@
         <v>0.83999997377395597</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1424,73 +1445,105 @@
         <v>0.81999999284744196</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="23">
-        <v>600</v>
-      </c>
-      <c r="C14" s="23">
-        <v>250</v>
-      </c>
-      <c r="D14" s="23">
-        <v>131</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1E-4</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="24">
-        <v>100</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25" t="s">
+    <row r="14" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="22">
+        <v>600</v>
+      </c>
+      <c r="C14" s="22">
+        <v>250</v>
+      </c>
+      <c r="D14" s="22">
+        <v>131</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>100</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30">
-        <v>600</v>
-      </c>
-      <c r="C15" s="30">
-        <v>250</v>
-      </c>
-      <c r="D15" s="30">
-        <v>131</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="K14" s="25"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26">
+        <v>600</v>
+      </c>
+      <c r="C15" s="26">
+        <v>250</v>
+      </c>
+      <c r="D15" s="26">
+        <v>131</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F15" s="26">
         <v>0.95</v>
       </c>
-      <c r="G15" s="30">
-        <v>100</v>
-      </c>
-      <c r="H15" s="30">
-        <v>1</v>
-      </c>
-      <c r="I15" s="30" t="s">
+      <c r="G15" s="26">
+        <v>100</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="26">
         <v>0.82400000095367398</v>
       </c>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1575,7 @@
         <v>0.86000001430511397</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1607,7 @@
         <v>0.83999997377395597</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1586,45 +1639,78 @@
         <v>0.85199999809265103</v>
       </c>
     </row>
-    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="30">
-        <v>600</v>
-      </c>
-      <c r="C19" s="30">
-        <v>250</v>
-      </c>
-      <c r="D19" s="30">
-        <v>131</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F19" s="30">
+    <row r="19" spans="1:43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26">
+        <v>600</v>
+      </c>
+      <c r="C19" s="26">
+        <v>250</v>
+      </c>
+      <c r="D19" s="26">
+        <v>131</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F19" s="26">
         <v>0.95</v>
       </c>
-      <c r="G19" s="30">
-        <v>100</v>
-      </c>
-      <c r="H19" s="30">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30" t="s">
+      <c r="G19" s="26">
+        <v>100</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="26">
         <v>0.84799998998641901</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J20" s="34">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="J20" s="30">
         <f>AVERAGE(J11:J19)</f>
         <v>0.84222221374511674</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1742,7 @@
         <v>0.86400002241134599</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -1688,7 +1774,7 @@
         <v>0.86000001430511397</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1720,40 +1806,72 @@
         <v>0.84399998188018799</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="23">
-        <v>600</v>
-      </c>
-      <c r="C24" s="23">
-        <v>250</v>
-      </c>
-      <c r="D24" s="23">
-        <v>131</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1E-4</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="24">
-        <v>100</v>
-      </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="25" t="s">
+    <row r="24" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="22">
+        <v>600</v>
+      </c>
+      <c r="C24" s="22">
+        <v>250</v>
+      </c>
+      <c r="D24" s="22">
+        <v>131</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <v>100</v>
+      </c>
+      <c r="H24" s="22">
+        <v>1</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="28"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1903,7 @@
         <v>0.86000001430511397</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
@@ -1816,42 +1934,74 @@
       <c r="J26" s="2">
         <v>0.86799997091293302</v>
       </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="23">
-        <v>600</v>
-      </c>
-      <c r="C27" s="23">
-        <v>250</v>
-      </c>
-      <c r="D27" s="23">
-        <v>131</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1E-4</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:43" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="22">
+        <v>600</v>
+      </c>
+      <c r="C27" s="22">
+        <v>250</v>
+      </c>
+      <c r="D27" s="22">
+        <v>131</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F27" s="22">
         <v>0.95</v>
       </c>
-      <c r="G27" s="24">
-        <v>100</v>
-      </c>
-      <c r="H27" s="23">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25" t="s">
+      <c r="G27" s="23">
+        <v>100</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="29"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>14</v>
       </c>
@@ -1882,10 +2032,10 @@
       <c r="J28" s="2">
         <v>0.85600000619888295</v>
       </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J29" s="34">
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="J29" s="30">
         <f>AVERAGE(J21:J28)</f>
         <v>0.86299999803304628</v>
       </c>
@@ -2033,7 +2183,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2043,70 +2193,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="30">
-        <v>600</v>
-      </c>
-      <c r="C2" s="30">
-        <v>250</v>
-      </c>
-      <c r="D2" s="30">
-        <v>131</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F2" s="30">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="26">
+        <v>600</v>
+      </c>
+      <c r="C2" s="26">
+        <v>250</v>
+      </c>
+      <c r="D2" s="26">
+        <v>131</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="26">
         <v>0.95</v>
       </c>
-      <c r="G2" s="30">
-        <v>100</v>
-      </c>
-      <c r="H2" s="30">
-        <v>1</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="G2" s="26">
+        <v>100</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="26">
         <v>0.88800001144409102</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="25">
         <v>0.85600000619888295</v>
       </c>
       <c r="M2" s="3">
@@ -2114,37 +2264,37 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30">
-        <v>600</v>
-      </c>
-      <c r="C3" s="30">
-        <v>250</v>
-      </c>
-      <c r="D3" s="30">
-        <v>131</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30">
-        <v>100</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="A3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="26">
+        <v>600</v>
+      </c>
+      <c r="C3" s="26">
+        <v>250</v>
+      </c>
+      <c r="D3" s="26">
+        <v>131</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>100</v>
+      </c>
+      <c r="H3" s="26">
         <v>10</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="26">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="35">
         <v>0.86400002241134599</v>
       </c>
       <c r="M3" s="3">
@@ -2152,268 +2302,268 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="30">
-        <v>600</v>
-      </c>
-      <c r="C4" s="30">
-        <v>250</v>
-      </c>
-      <c r="D4" s="30">
-        <v>131</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30">
-        <v>100</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26">
+        <v>600</v>
+      </c>
+      <c r="C4" s="26">
+        <v>250</v>
+      </c>
+      <c r="D4" s="26">
+        <v>131</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26">
+        <v>100</v>
+      </c>
+      <c r="H4" s="26">
         <v>32</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="26">
         <v>0.81199997663497903</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="30">
-        <v>600</v>
-      </c>
-      <c r="C5" s="30">
-        <v>250</v>
-      </c>
-      <c r="D5" s="30">
-        <v>131</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30">
-        <v>100</v>
-      </c>
-      <c r="H5" s="30">
-        <v>100</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="A5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26">
+        <v>600</v>
+      </c>
+      <c r="C5" s="26">
+        <v>250</v>
+      </c>
+      <c r="D5" s="26">
+        <v>131</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>100</v>
+      </c>
+      <c r="H5" s="26">
+        <v>100</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="26">
         <v>0.76800000667571999</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="30">
-        <v>600</v>
-      </c>
-      <c r="C6" s="30">
-        <v>250</v>
-      </c>
-      <c r="D6" s="30">
-        <v>131</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
-        <v>100</v>
-      </c>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26">
+        <v>600</v>
+      </c>
+      <c r="C6" s="26">
+        <v>250</v>
+      </c>
+      <c r="D6" s="26">
+        <v>131</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26">
+        <v>100</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="26">
         <v>0.87599998712539595</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="30">
-        <v>600</v>
-      </c>
-      <c r="C7" s="30">
-        <v>250</v>
-      </c>
-      <c r="D7" s="30">
-        <v>131</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30">
-        <v>100</v>
-      </c>
-      <c r="H7" s="30">
-        <v>1</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26">
+        <v>600</v>
+      </c>
+      <c r="C7" s="26">
+        <v>250</v>
+      </c>
+      <c r="D7" s="26">
+        <v>131</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>100</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="26">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="28">
         <v>0.86400002241134599</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="30">
-        <v>600</v>
-      </c>
-      <c r="C8" s="30">
-        <v>250</v>
-      </c>
-      <c r="D8" s="30">
-        <v>131</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26">
+        <v>600</v>
+      </c>
+      <c r="C8" s="26">
+        <v>250</v>
+      </c>
+      <c r="D8" s="26">
+        <v>131</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="26">
         <v>0.95</v>
       </c>
-      <c r="G8" s="30">
-        <v>100</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="G8" s="26">
+        <v>100</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="26">
         <v>0.87599998712539595</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="29">
         <v>0.85600000619888295</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="30">
-        <v>600</v>
-      </c>
-      <c r="C9" s="30">
-        <v>250</v>
-      </c>
-      <c r="D9" s="30">
-        <v>131</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F9" s="30">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30">
-        <v>100</v>
-      </c>
-      <c r="H9" s="30">
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26">
+        <v>600</v>
+      </c>
+      <c r="C9" s="26">
+        <v>250</v>
+      </c>
+      <c r="D9" s="26">
+        <v>131</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>100</v>
+      </c>
+      <c r="H9" s="26">
         <v>10</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="33">
+      <c r="J9" s="26"/>
+      <c r="K9" s="29">
         <v>0.87199997901916504</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="30">
-        <v>600</v>
-      </c>
-      <c r="C10" s="30">
-        <v>250</v>
-      </c>
-      <c r="D10" s="30">
-        <v>131</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F10" s="30">
-        <v>1</v>
-      </c>
-      <c r="G10" s="30">
-        <v>100</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="A10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="26">
+        <v>600</v>
+      </c>
+      <c r="C10" s="26">
+        <v>250</v>
+      </c>
+      <c r="D10" s="26">
+        <v>131</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>100</v>
+      </c>
+      <c r="H10" s="26">
         <v>32</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="33">
+      <c r="J10" s="26"/>
+      <c r="K10" s="29">
         <v>0.84399998188018799</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="30">
-        <v>600</v>
-      </c>
-      <c r="C11" s="30">
-        <v>250</v>
-      </c>
-      <c r="D11" s="30">
-        <v>131</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1E-4</v>
-      </c>
-      <c r="F11" s="30">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30">
-        <v>100</v>
-      </c>
-      <c r="H11" s="30">
-        <v>100</v>
-      </c>
-      <c r="I11" s="30" t="s">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26">
+        <v>600</v>
+      </c>
+      <c r="C11" s="26">
+        <v>250</v>
+      </c>
+      <c r="D11" s="26">
+        <v>131</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
+        <v>100</v>
+      </c>
+      <c r="H11" s="26">
+        <v>100</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="33">
+      <c r="J11" s="26"/>
+      <c r="K11" s="29">
         <v>0.84399998188018799</v>
       </c>
     </row>
@@ -2449,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063E81C-5DDE-4719-93A3-CECE2F182E2E}">
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2465,69 +2615,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="35">
-        <v>600</v>
-      </c>
-      <c r="D2" s="35">
-        <v>250</v>
-      </c>
-      <c r="E2" s="35">
-        <v>131</v>
-      </c>
-      <c r="F2" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="G2" s="35">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35">
-        <v>100</v>
-      </c>
-      <c r="I2" s="35">
-        <v>1</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="B2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="31">
+        <v>600</v>
+      </c>
+      <c r="D2" s="31">
+        <v>250</v>
+      </c>
+      <c r="E2" s="31">
+        <v>131</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>100</v>
+      </c>
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="32">
         <v>0.83200001716613703</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="34">
         <v>0.85199999809265103</v>
       </c>
       <c r="M2">
@@ -2535,37 +2685,37 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="31">
-        <v>600</v>
-      </c>
-      <c r="D3" s="31">
-        <v>250</v>
-      </c>
-      <c r="E3" s="31">
-        <v>131</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="G3" s="31">
-        <v>1</v>
-      </c>
-      <c r="H3" s="31">
-        <v>100</v>
-      </c>
-      <c r="I3" s="31">
-        <v>1</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="B3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="27">
+        <v>600</v>
+      </c>
+      <c r="D3" s="27">
+        <v>250</v>
+      </c>
+      <c r="E3" s="27">
+        <v>131</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27">
+        <v>100</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="33">
         <v>0.85600000619888295</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="36">
         <v>0.87599998712539595</v>
       </c>
       <c r="M3">
@@ -2579,7 +2729,7 @@
       <c r="H4">
         <v>100</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L4">
@@ -2596,7 +2746,7 @@
       <c r="H5">
         <v>100</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="L5">
@@ -2610,7 +2760,7 @@
       <c r="H6">
         <v>300</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L6">
@@ -2624,7 +2774,7 @@
       <c r="H7">
         <v>300</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="31" t="s">
         <v>10</v>
       </c>
       <c r="L7">
@@ -2632,35 +2782,35 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="35">
-        <v>600</v>
-      </c>
-      <c r="D17" s="35">
-        <v>250</v>
-      </c>
-      <c r="E17" s="35">
-        <v>131</v>
-      </c>
-      <c r="F17" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35">
-        <v>100</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="B17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="31">
+        <v>600</v>
+      </c>
+      <c r="D17" s="31">
+        <v>250</v>
+      </c>
+      <c r="E17" s="31">
+        <v>131</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>100</v>
+      </c>
+      <c r="I17" s="31">
         <v>10</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="38">
+      <c r="K17" s="32"/>
+      <c r="L17" s="34">
         <v>0.86400002241134599</v>
       </c>
       <c r="M17">
@@ -2668,37 +2818,37 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="31">
-        <v>600</v>
-      </c>
-      <c r="D18" s="31">
-        <v>250</v>
-      </c>
-      <c r="E18" s="31">
-        <v>131</v>
-      </c>
-      <c r="F18" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="G18" s="31">
-        <v>1</v>
-      </c>
-      <c r="H18" s="31">
-        <v>100</v>
-      </c>
-      <c r="I18" s="31">
+      <c r="B18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="27">
+        <v>600</v>
+      </c>
+      <c r="D18" s="27">
+        <v>250</v>
+      </c>
+      <c r="E18" s="27">
+        <v>131</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
+        <v>100</v>
+      </c>
+      <c r="I18" s="27">
         <v>10</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="33">
         <v>0.84399998188018799</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="36">
         <v>0.83600002527236905</v>
       </c>
       <c r="M18">
@@ -2706,35 +2856,35 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="35">
-        <v>600</v>
-      </c>
-      <c r="D20" s="35">
-        <v>250</v>
-      </c>
-      <c r="E20" s="35">
-        <v>131</v>
-      </c>
-      <c r="F20" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="G20" s="35">
-        <v>1</v>
-      </c>
-      <c r="H20" s="35">
-        <v>100</v>
-      </c>
-      <c r="I20" s="35">
+      <c r="B20" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="31">
+        <v>600</v>
+      </c>
+      <c r="D20" s="31">
+        <v>250</v>
+      </c>
+      <c r="E20" s="31">
+        <v>131</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31">
+        <v>100</v>
+      </c>
+      <c r="I20" s="31">
         <v>50</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="38">
+      <c r="K20" s="32"/>
+      <c r="L20" s="34">
         <v>0.84399998188018799</v>
       </c>
       <c r="M20">
@@ -2742,67 +2892,67 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="31">
-        <v>600</v>
-      </c>
-      <c r="D21" s="31">
-        <v>250</v>
-      </c>
-      <c r="E21" s="31">
-        <v>131</v>
-      </c>
-      <c r="F21" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="G21" s="31">
-        <v>1</v>
-      </c>
-      <c r="H21" s="31">
-        <v>100</v>
-      </c>
-      <c r="I21" s="31">
+      <c r="B21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="27">
+        <v>600</v>
+      </c>
+      <c r="D21" s="27">
+        <v>250</v>
+      </c>
+      <c r="E21" s="27">
+        <v>131</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="G21" s="27">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27">
+        <v>100</v>
+      </c>
+      <c r="I21" s="27">
         <v>50</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="33">
         <v>0.79600000381469704</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="35">
-        <v>600</v>
-      </c>
-      <c r="D23" s="35">
-        <v>250</v>
-      </c>
-      <c r="E23" s="35">
-        <v>131</v>
-      </c>
-      <c r="F23" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="G23" s="35">
-        <v>1</v>
-      </c>
-      <c r="H23" s="35">
-        <v>100</v>
-      </c>
-      <c r="I23" s="35">
-        <v>100</v>
-      </c>
-      <c r="J23" s="35" t="s">
+      <c r="B23" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="31">
+        <v>600</v>
+      </c>
+      <c r="D23" s="31">
+        <v>250</v>
+      </c>
+      <c r="E23" s="31">
+        <v>131</v>
+      </c>
+      <c r="F23" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
+        <v>100</v>
+      </c>
+      <c r="I23" s="31">
+        <v>100</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38">
+      <c r="K23" s="33"/>
+      <c r="L23" s="34">
         <v>0.83600002527236905</v>
       </c>
       <c r="M23">
@@ -2810,34 +2960,34 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B24" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="31">
-        <v>600</v>
-      </c>
-      <c r="D24" s="31">
-        <v>250</v>
-      </c>
-      <c r="E24" s="31">
-        <v>131</v>
-      </c>
-      <c r="F24" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="G24" s="31">
-        <v>1</v>
-      </c>
-      <c r="H24" s="31">
-        <v>100</v>
-      </c>
-      <c r="I24" s="31">
-        <v>100</v>
-      </c>
-      <c r="J24" s="31" t="s">
+      <c r="B24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="27">
+        <v>600</v>
+      </c>
+      <c r="D24" s="27">
+        <v>250</v>
+      </c>
+      <c r="E24" s="27">
+        <v>131</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="G24" s="27">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27">
+        <v>100</v>
+      </c>
+      <c r="I24" s="27">
+        <v>100</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G32">
